--- a/Python_code/pad2.xlsx
+++ b/Python_code/pad2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\PycharmProjects\Bedrijfsproject\Python_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dehaagsehogeschool.sharepoint.com/sites/RemanufacturingLab-StudentTeams_groups-TransportSystem/Gedeelde documenten/TransportSystem/2526-Pick and place station/60 Software/v2/Python_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FD026B-2BA1-40D7-B8E4-7314397A89E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{40FD026B-2BA1-40D7-B8E4-7314397A89E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9A2519F-630D-400F-8A3F-1E78CB7D19EB}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="0" windowWidth="12980" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,12 +390,12 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -406,130 +406,379 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>(969-40)*-1</f>
-        <v>-929</v>
+        <v>562</v>
       </c>
       <c r="C2">
-        <f>562*-1</f>
-        <v>-562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>340</v>
+      </c>
+      <c r="C3">
         <v>1020</v>
       </c>
-      <c r="C3">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>303</v>
+      </c>
+      <c r="C4">
         <v>758</v>
       </c>
-      <c r="C4">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>265</v>
+      </c>
+      <c r="C5">
         <v>813</v>
       </c>
-      <c r="C5">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
+        <v>225</v>
+      </c>
+      <c r="C6">
         <v>960</v>
       </c>
-      <c r="C6">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7">
+        <v>145</v>
+      </c>
+      <c r="C7">
         <v>945</v>
       </c>
-      <c r="C7">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100843AA7218070234CAC2C8F3D99BA623E" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e5633443d3e45aaf27609dcb27b38a2f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8436ea73-f4fb-4db8-a588-1527d4e28bbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c95227e9c584f29c20df6bf4726ea7e" ns2:_="">
+    <xsd:import namespace="8436ea73-f4fb-4db8-a588-1527d4e28bbd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8436ea73-f4fb-4db8-a588-1527d4e28bbd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9cfe35b6-4a65-43a7-bc9f-cf1ea54c88fe" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="20" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8436ea73-f4fb-4db8-a588-1527d4e28bbd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C9B3B85-A855-424F-95B5-19B3C372246E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368C0C97-8981-4DD9-BA51-AF4892D7E52F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8436ea73-f4fb-4db8-a588-1527d4e28bbd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5D9C8A2-7D5D-4944-B0A8-F66E18230BD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8436ea73-f4fb-4db8-a588-1527d4e28bbd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Python_code/pad2.xlsx
+++ b/Python_code/pad2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dehaagsehogeschool.sharepoint.com/sites/RemanufacturingLab-StudentTeams_groups-TransportSystem/Gedeelde documenten/TransportSystem/2526-Pick and place station/60 Software/v2/Python_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{40FD026B-2BA1-40D7-B8E4-7314397A89E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9A2519F-630D-400F-8A3F-1E78CB7D19EB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{40FD026B-2BA1-40D7-B8E4-7314397A89E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01638FB3-CD4A-4996-84EF-B71F6A901F84}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45585" yWindow="1260" windowWidth="10065" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C2">
-        <v>969</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -422,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C3">
         <v>1020</v>
@@ -436,7 +436,7 @@
         <v>303</v>
       </c>
       <c r="C4">
-        <v>758</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -444,10 +444,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C5">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -455,10 +455,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C6">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,10 +466,10 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C7">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -533,17 +533,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8436ea73-f4fb-4db8-a588-1527d4e28bbd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100843AA7218070234CAC2C8F3D99BA623E" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e5633443d3e45aaf27609dcb27b38a2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8436ea73-f4fb-4db8-a588-1527d4e28bbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c95227e9c584f29c20df6bf4726ea7e" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100843AA7218070234CAC2C8F3D99BA623E" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="01dac807dec08a797c452e5a2658cbad">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8436ea73-f4fb-4db8-a588-1527d4e28bbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab267d64b2f457540fbe6d8ef6ea5c42" ns2:_="">
     <xsd:import namespace="8436ea73-f4fb-4db8-a588-1527d4e28bbd"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -738,25 +739,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8436ea73-f4fb-4db8-a588-1527d4e28bbd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C9B3B85-A855-424F-95B5-19B3C372246E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1456D9-DAB7-4E4E-BB6A-BFCFF08A08B1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8436ea73-f4fb-4db8-a588-1527d4e28bbd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368C0C97-8981-4DD9-BA51-AF4892D7E52F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84FAE2DE-A1DA-444D-8FC2-9F037DE9D68D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -774,11 +776,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5D9C8A2-7D5D-4944-B0A8-F66E18230BD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1119128F-11FE-4B1C-99DA-43EA84F0C945}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8436ea73-f4fb-4db8-a588-1527d4e28bbd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>